--- a/data/trans_orig/P14C08-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14C08-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C52A4E7-FE99-4EE3-98D5-BB7474FBB89E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6406FA69-9AD7-48D3-8EE8-C7D6C5077CD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{758D0E4D-FB96-4DC5-BA72-9971BD13DAEB}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6D2A434D-C333-4617-AC2C-BAB415479EA4}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="161">
   <si>
     <t>Población según el tiempo de diagnóstico del enfermedad crónica de pulmón en 2015 (Tasa respuesta: 1,61%)</t>
   </si>
@@ -74,7 +74,7 @@
     <t>81,43%</t>
   </si>
   <si>
-    <t>33,93%</t>
+    <t>28,03%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -89,7 +89,7 @@
     <t>75,08%</t>
   </si>
   <si>
-    <t>32,72%</t>
+    <t>33,08%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -107,7 +107,7 @@
     <t>10,03%</t>
   </si>
   <si>
-    <t>52,07%</t>
+    <t>50,33%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -116,7 +116,7 @@
     <t>18,57%</t>
   </si>
   <si>
-    <t>66,07%</t>
+    <t>71,97%</t>
   </si>
   <si>
     <t>56,93%</t>
@@ -125,7 +125,7 @@
     <t>14,89%</t>
   </si>
   <si>
-    <t>57,69%</t>
+    <t>61,65%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,10 +137,10 @@
     <t>52,52%</t>
   </si>
   <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>82,9%</t>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>77,09%</t>
   </si>
   <si>
     <t>74,5%</t>
@@ -152,19 +152,19 @@
     <t>60,6%</t>
   </si>
   <si>
-    <t>38,31%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>80,66%</t>
   </si>
   <si>
     <t>39,67%</t>
   </si>
   <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>68,68%</t>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>66,5%</t>
   </si>
   <si>
     <t>12,75%</t>
@@ -176,16 +176,16 @@
     <t>29,77%</t>
   </si>
   <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>52,26%</t>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>52,19%</t>
   </si>
   <si>
     <t>7,81%</t>
   </si>
   <si>
-    <t>39,8%</t>
+    <t>39,2%</t>
   </si>
   <si>
     <t>55,13%</t>
@@ -194,7 +194,7 @@
     <t>9,63%</t>
   </si>
   <si>
-    <t>29,87%</t>
+    <t>29,64%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -209,7 +209,7 @@
     <t>70,73%</t>
   </si>
   <si>
-    <t>29,16%</t>
+    <t>29,79%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -221,7 +221,7 @@
     <t>13,6%</t>
   </si>
   <si>
-    <t>58,45%</t>
+    <t>54,51%</t>
   </si>
   <si>
     <t>35,42%</t>
@@ -230,7 +230,7 @@
     <t>15,67%</t>
   </si>
   <si>
-    <t>68,52%</t>
+    <t>67,43%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -239,25 +239,25 @@
     <t>88,87%</t>
   </si>
   <si>
-    <t>56,12%</t>
+    <t>55,14%</t>
   </si>
   <si>
     <t>92,81%</t>
   </si>
   <si>
-    <t>62,09%</t>
+    <t>62,08%</t>
   </si>
   <si>
     <t>11,13%</t>
   </si>
   <si>
-    <t>43,88%</t>
+    <t>44,86%</t>
   </si>
   <si>
     <t>7,19%</t>
   </si>
   <si>
-    <t>37,91%</t>
+    <t>37,92%</t>
   </si>
   <si>
     <t>17,08%</t>
@@ -272,28 +272,22 @@
     <t>55,71%</t>
   </si>
   <si>
-    <t>16,25%</t>
-  </si>
-  <si>
     <t>43,07%</t>
   </si>
   <si>
     <t>69,08%</t>
   </si>
   <si>
-    <t>25,98%</t>
+    <t>25,32%</t>
   </si>
   <si>
     <t>44,29%</t>
   </si>
   <si>
-    <t>83,75%</t>
-  </si>
-  <si>
     <t>30,92%</t>
   </si>
   <si>
-    <t>74,02%</t>
+    <t>74,68%</t>
   </si>
   <si>
     <t>23,25%</t>
@@ -314,10 +308,10 @@
     <t>62,51%</t>
   </si>
   <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
   </si>
   <si>
     <t>22,6%</t>
@@ -335,22 +329,19 @@
     <t>25,75%</t>
   </si>
   <si>
-    <t>65,88%</t>
+    <t>63,58%</t>
   </si>
   <si>
     <t>25,09%</t>
   </si>
   <si>
-    <t>76,91%</t>
-  </si>
-  <si>
     <t>36,25%</t>
   </si>
   <si>
     <t>11,74%</t>
   </si>
   <si>
-    <t>59,01%</t>
+    <t>50,52%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -359,7 +350,7 @@
     <t>81,15%</t>
   </si>
   <si>
-    <t>37,37%</t>
+    <t>32,89%</t>
   </si>
   <si>
     <t>81,26%</t>
@@ -368,13 +359,13 @@
     <t>90,46%</t>
   </si>
   <si>
-    <t>57,37%</t>
+    <t>51,55%</t>
   </si>
   <si>
     <t>18,85%</t>
   </si>
   <si>
-    <t>62,63%</t>
+    <t>67,11%</t>
   </si>
   <si>
     <t>18,74%</t>
@@ -383,7 +374,7 @@
     <t>9,54%</t>
   </si>
   <si>
-    <t>42,63%</t>
+    <t>48,45%</t>
   </si>
   <si>
     <t>9,99%</t>
@@ -395,52 +386,52 @@
     <t>54,35%</t>
   </si>
   <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>78,98%</t>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>78,29%</t>
   </si>
   <si>
     <t>67,13%</t>
   </si>
   <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
   </si>
   <si>
     <t>60,33%</t>
   </si>
   <si>
-    <t>39,04%</t>
-  </si>
-  <si>
-    <t>79,89%</t>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>78,52%</t>
   </si>
   <si>
     <t>45,65%</t>
   </si>
   <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>74,05%</t>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>74,69%</t>
   </si>
   <si>
     <t>32,87%</t>
   </si>
   <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>77,55%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>60,96%</t>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>68,06%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>61,17%</t>
   </si>
   <si>
     <t>13,49%</t>
@@ -452,70 +443,70 @@
     <t>69,29%</t>
   </si>
   <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>80,43%</t>
+    <t>57,86%</t>
+  </si>
+  <si>
+    <t>80,64%</t>
   </si>
   <si>
     <t>78,26%</t>
   </si>
   <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
+    <t>64,0%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
   </si>
   <si>
     <t>72,96%</t>
   </si>
   <si>
-    <t>63,03%</t>
-  </si>
-  <si>
-    <t>80,41%</t>
+    <t>63,24%</t>
+  </si>
+  <si>
+    <t>81,0%</t>
   </si>
   <si>
     <t>25,58%</t>
   </si>
   <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
   </si>
   <si>
     <t>16,92%</t>
   </si>
   <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
   </si>
   <si>
     <t>22,03%</t>
   </si>
   <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
   </si>
   <si>
     <t>5,13%</t>
   </si>
   <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
   </si>
   <si>
     <t>4,82%</t>
   </si>
   <si>
-    <t>15,06%</t>
+    <t>15,72%</t>
   </si>
   <si>
     <t>5,0%</t>
@@ -524,7 +515,7 @@
     <t>1,86%</t>
   </si>
   <si>
-    <t>10,99%</t>
+    <t>11,48%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -939,7 +930,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27C2BAED-36E4-4D9F-8766-6F4FA384FB0F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D10E189-9EC0-474A-BA5C-B9557BEC6C06}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1890,7 +1881,7 @@
         <v>77</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>13</v>
@@ -1905,7 +1896,7 @@
         <v>13</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>30</v>
@@ -1917,10 +1908,10 @@
         <v>4590</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>13</v>
@@ -1938,13 +1929,13 @@
         <v>2055</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -1968,13 +1959,13 @@
         <v>2055</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2025,7 +2016,7 @@
         <v>19</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2081,7 +2072,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2093,7 +2084,7 @@
         <v>2031</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>15</v>
@@ -2108,10 +2099,10 @@
         <v>3156</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>13</v>
@@ -2123,13 +2114,13 @@
         <v>5187</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2144,13 +2135,13 @@
         <v>878</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -2159,13 +2150,13 @@
         <v>1259</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M25" s="7">
         <v>2</v>
@@ -2174,13 +2165,13 @@
         <v>2137</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2195,13 +2186,13 @@
         <v>974</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -2216,7 +2207,7 @@
         <v>19</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -2225,13 +2216,13 @@
         <v>974</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2287,7 +2278,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2299,10 +2290,10 @@
         <v>8534</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>13</v>
@@ -2317,7 +2308,7 @@
         <v>13</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>30</v>
@@ -2329,10 +2320,10 @@
         <v>18808</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>13</v>
@@ -2350,13 +2341,13 @@
         <v>1983</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -2371,7 +2362,7 @@
         <v>19</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="M29" s="7">
         <v>1</v>
@@ -2380,13 +2371,13 @@
         <v>1983</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2407,7 +2398,7 @@
         <v>19</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -2422,7 +2413,7 @@
         <v>19</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -2437,7 +2428,7 @@
         <v>19</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2493,7 +2484,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -2505,13 +2496,13 @@
         <v>6584</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H32" s="7">
         <v>6</v>
@@ -2520,13 +2511,13 @@
         <v>7146</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="M32" s="7">
         <v>13</v>
@@ -2535,13 +2526,13 @@
         <v>13729</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2556,13 +2547,13 @@
         <v>5529</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H33" s="7">
         <v>3</v>
@@ -2571,13 +2562,13 @@
         <v>3499</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="M33" s="7">
         <v>9</v>
@@ -2589,10 +2580,10 @@
         <v>40</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2613,7 +2604,7 @@
         <v>19</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -2628,7 +2619,7 @@
         <v>19</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -2643,7 +2634,7 @@
         <v>19</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2711,13 +2702,13 @@
         <v>45440</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H36" s="7">
         <v>32</v>
@@ -2726,13 +2717,13 @@
         <v>35621</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="M36" s="7">
         <v>78</v>
@@ -2741,13 +2732,13 @@
         <v>81062</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2762,13 +2753,13 @@
         <v>16778</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H37" s="7">
         <v>7</v>
@@ -2777,13 +2768,13 @@
         <v>7703</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="M37" s="7">
         <v>23</v>
@@ -2792,13 +2783,13 @@
         <v>24481</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -2813,13 +2804,13 @@
         <v>3364</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H38" s="7">
         <v>2</v>
@@ -2828,13 +2819,13 @@
         <v>2195</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="M38" s="7">
         <v>5</v>
@@ -2843,13 +2834,13 @@
         <v>5559</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -2905,7 +2896,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14C08-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14C08-Provincia-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6406FA69-9AD7-48D3-8EE8-C7D6C5077CD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D44E69D-BC5E-46CF-B12E-40DF0934FCBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6D2A434D-C333-4617-AC2C-BAB415479EA4}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B74AACD3-1D29-4A03-8CD7-F4C7DC63BCDA}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="161">
   <si>
-    <t>Población según el tiempo de diagnóstico del enfermedad crónica de pulmón en 2015 (Tasa respuesta: 1,61%)</t>
+    <t>Población según el tiempo de diagnóstico del enfermedad crónica de pulmón en 2016 (Tasa respuesta: 1,61%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,7 +74,7 @@
     <t>81,43%</t>
   </si>
   <si>
-    <t>28,03%</t>
+    <t>30,44%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -89,7 +89,7 @@
     <t>75,08%</t>
   </si>
   <si>
-    <t>33,08%</t>
+    <t>34,43%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -107,7 +107,7 @@
     <t>10,03%</t>
   </si>
   <si>
-    <t>50,33%</t>
+    <t>52,94%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -116,7 +116,7 @@
     <t>18,57%</t>
   </si>
   <si>
-    <t>71,97%</t>
+    <t>69,56%</t>
   </si>
   <si>
     <t>56,93%</t>
@@ -125,7 +125,7 @@
     <t>14,89%</t>
   </si>
   <si>
-    <t>61,65%</t>
+    <t>53,86%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,64 +137,64 @@
     <t>52,52%</t>
   </si>
   <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>77,09%</t>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>76,98%</t>
   </si>
   <si>
     <t>74,5%</t>
   </si>
   <si>
-    <t>32,19%</t>
+    <t>30,37%</t>
   </si>
   <si>
     <t>60,6%</t>
   </si>
   <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>80,66%</t>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>80,94%</t>
   </si>
   <si>
     <t>39,67%</t>
   </si>
   <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>66,5%</t>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>67,76%</t>
   </si>
   <si>
     <t>12,75%</t>
   </si>
   <si>
-    <t>54,52%</t>
+    <t>54,51%</t>
   </si>
   <si>
     <t>29,77%</t>
   </si>
   <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>52,19%</t>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>51,03%</t>
   </si>
   <si>
     <t>7,81%</t>
   </si>
   <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>55,13%</t>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>57,05%</t>
   </si>
   <si>
     <t>9,63%</t>
   </si>
   <si>
-    <t>29,64%</t>
+    <t>30,41%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -209,7 +209,7 @@
     <t>70,73%</t>
   </si>
   <si>
-    <t>29,79%</t>
+    <t>30,85%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -221,7 +221,7 @@
     <t>13,6%</t>
   </si>
   <si>
-    <t>54,51%</t>
+    <t>56,92%</t>
   </si>
   <si>
     <t>35,42%</t>
@@ -230,7 +230,7 @@
     <t>15,67%</t>
   </si>
   <si>
-    <t>67,43%</t>
+    <t>67,44%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -239,25 +239,25 @@
     <t>88,87%</t>
   </si>
   <si>
-    <t>55,14%</t>
+    <t>50,06%</t>
   </si>
   <si>
     <t>92,81%</t>
   </si>
   <si>
-    <t>62,08%</t>
+    <t>69,51%</t>
   </si>
   <si>
     <t>11,13%</t>
   </si>
   <si>
-    <t>44,86%</t>
+    <t>49,94%</t>
   </si>
   <si>
     <t>7,19%</t>
   </si>
   <si>
-    <t>37,92%</t>
+    <t>30,49%</t>
   </si>
   <si>
     <t>17,08%</t>
@@ -272,24 +272,27 @@
     <t>55,71%</t>
   </si>
   <si>
+    <t>16,28%</t>
+  </si>
+  <si>
     <t>43,07%</t>
   </si>
   <si>
     <t>69,08%</t>
   </si>
   <si>
-    <t>25,32%</t>
+    <t>25,5%</t>
   </si>
   <si>
     <t>44,29%</t>
   </si>
   <si>
+    <t>83,72%</t>
+  </si>
+  <si>
     <t>30,92%</t>
   </si>
   <si>
-    <t>74,68%</t>
-  </si>
-  <si>
     <t>23,25%</t>
   </si>
   <si>
@@ -308,18 +311,15 @@
     <t>62,51%</t>
   </si>
   <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
   </si>
   <si>
     <t>22,6%</t>
   </si>
   <si>
-    <t>72,99%</t>
-  </si>
-  <si>
     <t>28,52%</t>
   </si>
   <si>
@@ -329,19 +329,22 @@
     <t>25,75%</t>
   </si>
   <si>
-    <t>63,58%</t>
+    <t>64,89%</t>
   </si>
   <si>
     <t>25,09%</t>
   </si>
   <si>
+    <t>76,91%</t>
+  </si>
+  <si>
     <t>36,25%</t>
   </si>
   <si>
     <t>11,74%</t>
   </si>
   <si>
-    <t>50,52%</t>
+    <t>59,35%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -350,7 +353,7 @@
     <t>81,15%</t>
   </si>
   <si>
-    <t>32,89%</t>
+    <t>38,31%</t>
   </si>
   <si>
     <t>81,26%</t>
@@ -359,13 +362,13 @@
     <t>90,46%</t>
   </si>
   <si>
-    <t>51,55%</t>
+    <t>58,43%</t>
   </si>
   <si>
     <t>18,85%</t>
   </si>
   <si>
-    <t>67,11%</t>
+    <t>61,69%</t>
   </si>
   <si>
     <t>18,74%</t>
@@ -374,7 +377,7 @@
     <t>9,54%</t>
   </si>
   <si>
-    <t>48,45%</t>
+    <t>41,57%</t>
   </si>
   <si>
     <t>9,99%</t>
@@ -386,52 +389,52 @@
     <t>54,35%</t>
   </si>
   <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>78,29%</t>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>78,77%</t>
   </si>
   <si>
     <t>67,13%</t>
   </si>
   <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
   </si>
   <si>
     <t>60,33%</t>
   </si>
   <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>78,52%</t>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>78,81%</t>
   </si>
   <si>
     <t>45,65%</t>
   </si>
   <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>74,69%</t>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>73,9%</t>
   </si>
   <si>
     <t>32,87%</t>
   </si>
   <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>68,06%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>61,17%</t>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>66,71%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>64,07%</t>
   </si>
   <si>
     <t>13,49%</t>
@@ -443,79 +446,76 @@
     <t>69,29%</t>
   </si>
   <si>
-    <t>57,86%</t>
-  </si>
-  <si>
-    <t>80,64%</t>
+    <t>56,3%</t>
+  </si>
+  <si>
+    <t>79,13%</t>
   </si>
   <si>
     <t>78,26%</t>
   </si>
   <si>
-    <t>64,0%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
+    <t>63,53%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
   </si>
   <si>
     <t>72,96%</t>
   </si>
   <si>
-    <t>63,24%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
+    <t>64,64%</t>
+  </si>
+  <si>
+    <t>81,09%</t>
   </si>
   <si>
     <t>25,58%</t>
   </si>
   <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
   </si>
   <si>
     <t>16,92%</t>
   </si>
   <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
   </si>
   <si>
     <t>22,03%</t>
   </si>
   <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
+    <t>14,75%</t>
   </si>
   <si>
     <t>5,13%</t>
   </si>
   <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
   </si>
   <si>
     <t>4,82%</t>
   </si>
   <si>
-    <t>15,72%</t>
+    <t>16,53%</t>
   </si>
   <si>
     <t>5,0%</t>
   </si>
   <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -930,7 +930,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D10E189-9EC0-474A-BA5C-B9557BEC6C06}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B35FFFB-63CA-495F-8FB8-FC2BA840CEBB}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1881,7 +1881,7 @@
         <v>77</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>13</v>
@@ -1896,7 +1896,7 @@
         <v>13</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>30</v>
@@ -1908,10 +1908,10 @@
         <v>4590</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>13</v>
@@ -1929,13 +1929,13 @@
         <v>2055</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -1959,13 +1959,13 @@
         <v>2055</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>83</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2016,7 +2016,7 @@
         <v>19</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2072,7 +2072,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2084,7 +2084,7 @@
         <v>2031</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>15</v>
@@ -2099,10 +2099,10 @@
         <v>3156</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>13</v>
@@ -2114,13 +2114,13 @@
         <v>5187</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2135,13 +2135,13 @@
         <v>878</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -2192,7 +2192,7 @@
         <v>15</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>19</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -2216,13 +2216,13 @@
         <v>974</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2278,7 +2278,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2290,10 +2290,10 @@
         <v>8534</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>13</v>
@@ -2308,7 +2308,7 @@
         <v>13</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>30</v>
@@ -2320,10 +2320,10 @@
         <v>18808</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>13</v>
@@ -2341,13 +2341,13 @@
         <v>1983</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -2362,7 +2362,7 @@
         <v>19</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M29" s="7">
         <v>1</v>
@@ -2371,13 +2371,13 @@
         <v>1983</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2398,7 +2398,7 @@
         <v>19</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -2413,7 +2413,7 @@
         <v>19</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -2428,7 +2428,7 @@
         <v>19</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2484,7 +2484,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -2496,13 +2496,13 @@
         <v>6584</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H32" s="7">
         <v>6</v>
@@ -2511,13 +2511,13 @@
         <v>7146</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M32" s="7">
         <v>13</v>
@@ -2526,13 +2526,13 @@
         <v>13729</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2547,13 +2547,13 @@
         <v>5529</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H33" s="7">
         <v>3</v>
@@ -2562,13 +2562,13 @@
         <v>3499</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M33" s="7">
         <v>9</v>
@@ -2580,10 +2580,10 @@
         <v>40</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2604,7 +2604,7 @@
         <v>19</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -2619,7 +2619,7 @@
         <v>19</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -2634,7 +2634,7 @@
         <v>19</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2702,13 +2702,13 @@
         <v>45440</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H36" s="7">
         <v>32</v>
@@ -2717,13 +2717,13 @@
         <v>35621</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M36" s="7">
         <v>78</v>
@@ -2732,13 +2732,13 @@
         <v>81062</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2753,13 +2753,13 @@
         <v>16778</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H37" s="7">
         <v>7</v>
@@ -2768,13 +2768,13 @@
         <v>7703</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M37" s="7">
         <v>23</v>
@@ -2783,13 +2783,13 @@
         <v>24481</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>151</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
